--- a/dssProject/Modelo_matemático/Files/Resumen.xlsx
+++ b/dssProject/Modelo_matemático/Files/Resumen.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>1446.4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320</v>
+        <v>1208.54</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.16</v>
+        <v>620.9699999999998</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.16</v>
+        <v>537.8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.15</v>
+        <v>431.45</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>173.1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/dssProject/Modelo_matemático/Files/Resumen.xlsx
+++ b/dssProject/Modelo_matemático/Files/Resumen.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1446.4</v>
+        <v>400</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1208.54</v>
+        <v>384</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.9699999999998</v>
+        <v>156.87</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.8</v>
+        <v>125.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431.45</v>
+        <v>117.96</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.1</v>
+        <v>42.9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
